--- a/_pedro/notas/musa86.xlsx
+++ b/_pedro/notas/musa86.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kroger/Code/genosmus/_pedro/notas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03330C4-9461-A94E-9833-C4D2B0666FE2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBFE269-9228-904E-8C5C-F62D8BCDD63A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{0F653A56-3787-D649-A495-8EB2FAFB69E3}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{0F653A56-3787-D649-A495-8EB2FAFB69E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -436,7 +436,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -484,9 +484,12 @@
       <c r="B2">
         <v>1.25</v>
       </c>
+      <c r="C2">
+        <v>1.25</v>
+      </c>
       <c r="I2">
         <f>SUM(B2:H2)</f>
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -496,9 +499,12 @@
       <c r="B3">
         <v>1.25</v>
       </c>
+      <c r="C3">
+        <v>1.25</v>
+      </c>
       <c r="I3">
         <f t="shared" ref="I3:I7" si="0">SUM(B3:H3)</f>
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -508,9 +514,12 @@
       <c r="B4">
         <v>1.25</v>
       </c>
+      <c r="C4">
+        <v>1.25</v>
+      </c>
       <c r="I4">
         <f t="shared" si="0"/>
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -520,6 +529,9 @@
       <c r="B5">
         <v>0</v>
       </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
       <c r="I5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -532,6 +544,9 @@
       <c r="B6">
         <v>0</v>
       </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
       <c r="I6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -544,9 +559,12 @@
       <c r="B7">
         <v>1.25</v>
       </c>
+      <c r="C7">
+        <v>1.25</v>
+      </c>
       <c r="I7">
         <f t="shared" si="0"/>
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>

--- a/_pedro/notas/musa86.xlsx
+++ b/_pedro/notas/musa86.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kroger/Code/genosmus/_pedro/notas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBFE269-9228-904E-8C5C-F62D8BCDD63A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E54283D-9561-3540-91F5-10C95FB253A7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{0F653A56-3787-D649-A495-8EB2FAFB69E3}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{0F653A56-3787-D649-A495-8EB2FAFB69E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -436,7 +436,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -545,11 +545,11 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">

--- a/_pedro/notas/musa86.xlsx
+++ b/_pedro/notas/musa86.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kroger/Code/genosmus/_pedro/notas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E54283D-9561-3540-91F5-10C95FB253A7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6799547C-8AAB-324C-A484-804F983B9008}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{0F653A56-3787-D649-A495-8EB2FAFB69E3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Nome</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>George Cristian Vilela Pereira</t>
-  </si>
-  <si>
-    <t>Guilherme Dourado Gentil</t>
   </si>
   <si>
     <t>Jonatas Leal Gonçalves Dos Santos</t>
@@ -433,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72AE9372-89F4-744B-9FB7-8ECEA9064D4A}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -487,9 +484,12 @@
       <c r="C2">
         <v>1.25</v>
       </c>
+      <c r="D2">
+        <v>0.6</v>
+      </c>
       <c r="I2">
         <f>SUM(B2:H2)</f>
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -502,9 +502,12 @@
       <c r="C3">
         <v>1.25</v>
       </c>
+      <c r="D3">
+        <v>0.6</v>
+      </c>
       <c r="I3">
-        <f t="shared" ref="I3:I7" si="0">SUM(B3:H3)</f>
-        <v>2.5</v>
+        <f t="shared" ref="I3:I6" si="0">SUM(B3:H3)</f>
+        <v>3.1</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -517,9 +520,12 @@
       <c r="C4">
         <v>1.25</v>
       </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
       <c r="I4">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -530,11 +536,14 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.6</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -542,29 +551,17 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="C6">
-        <v>0.6</v>
+        <v>1.25</v>
+      </c>
+      <c r="D6">
+        <v>1.25</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7">
-        <v>1.25</v>
-      </c>
-      <c r="C7">
-        <v>1.25</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
     </row>
   </sheetData>

--- a/_pedro/notas/musa86.xlsx
+++ b/_pedro/notas/musa86.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kroger/Code/genosmus/_pedro/notas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6799547C-8AAB-324C-A484-804F983B9008}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011A545A-4057-3E46-84D4-32126B840A7B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{0F653A56-3787-D649-A495-8EB2FAFB69E3}"/>
   </bookViews>
@@ -113,9 +113,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,7 +434,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -478,16 +479,22 @@
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
-        <v>1.25</v>
-      </c>
-      <c r="C2">
-        <v>1.25</v>
-      </c>
-      <c r="D2">
+      <c r="B2" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="D2" s="2">
         <v>0.6</v>
       </c>
-      <c r="I2">
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2">
         <f>SUM(B2:H2)</f>
         <v>3.1</v>
       </c>
@@ -496,16 +503,22 @@
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3">
-        <v>1.25</v>
-      </c>
-      <c r="C3">
-        <v>1.25</v>
-      </c>
-      <c r="D3">
+      <c r="B3" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="D3" s="2">
         <v>0.6</v>
       </c>
-      <c r="I3">
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2">
         <f t="shared" ref="I3:I6" si="0">SUM(B3:H3)</f>
         <v>3.1</v>
       </c>
@@ -514,34 +527,46 @@
       <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4">
-        <v>1.25</v>
-      </c>
-      <c r="C4">
-        <v>1.25</v>
-      </c>
-      <c r="D4">
+      <c r="B4" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="D4" s="2">
         <v>1</v>
       </c>
-      <c r="I4">
+      <c r="E4" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2">
         <f t="shared" si="0"/>
-        <v>3.5</v>
+        <v>4.12</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>0</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>0.6</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>1</v>
       </c>
-      <c r="I5">
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2">
         <f t="shared" si="0"/>
         <v>1.6</v>
       </c>
@@ -550,18 +575,24 @@
       <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B6">
-        <v>1.25</v>
-      </c>
-      <c r="C6">
-        <v>1.25</v>
-      </c>
-      <c r="D6">
-        <v>1.25</v>
-      </c>
-      <c r="I6">
+      <c r="B6" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2">
         <f t="shared" si="0"/>
-        <v>3.75</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/_pedro/notas/musa86.xlsx
+++ b/_pedro/notas/musa86.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10610"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kroger/Code/genosmus/_pedro/notas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011A545A-4057-3E46-84D4-32126B840A7B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5627E47E-585D-4A42-954A-670BBCDEE931}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{0F653A56-3787-D649-A495-8EB2FAFB69E3}"/>
   </bookViews>
@@ -434,7 +434,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -513,14 +513,14 @@
         <v>0.6</v>
       </c>
       <c r="E3" s="2">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2">
         <f t="shared" ref="I3:I6" si="0">SUM(B3:H3)</f>
-        <v>3.1</v>
+        <v>3.72</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">

--- a/_pedro/notas/musa86.xlsx
+++ b/_pedro/notas/musa86.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10610"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kroger/Code/genosmus/_pedro/notas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5627E47E-585D-4A42-954A-670BBCDEE931}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D331B0B-2C05-D44D-A922-0F7820CA4D42}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{0F653A56-3787-D649-A495-8EB2FAFB69E3}"/>
   </bookViews>
@@ -434,7 +434,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -491,12 +491,14 @@
       <c r="E2" s="2">
         <v>0</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2">
+        <v>1.25</v>
+      </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2">
         <f>SUM(B2:H2)</f>
-        <v>3.1</v>
+        <v>4.3499999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -515,12 +517,14 @@
       <c r="E3" s="2">
         <v>0.62</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2">
+        <v>1.25</v>
+      </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2">
         <f t="shared" ref="I3:I6" si="0">SUM(B3:H3)</f>
-        <v>3.72</v>
+        <v>4.9700000000000006</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -539,7 +543,9 @@
       <c r="E4" s="2">
         <v>0.62</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2">
@@ -563,12 +569,14 @@
       <c r="E5" s="2">
         <v>0</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2">
+        <v>0.75</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2">
-        <f t="shared" si="0"/>
-        <v>1.6</v>
+        <f>SUM(B5:H5)</f>
+        <v>2.35</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -587,12 +595,12 @@
       <c r="E6" s="2">
         <v>1.25</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="F6" s="2">
+        <v>1.25</v>
+      </c>
       <c r="I6" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6.25</v>
       </c>
     </row>
   </sheetData>

--- a/_pedro/notas/musa86.xlsx
+++ b/_pedro/notas/musa86.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kroger/Code/genosmus/_pedro/notas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D331B0B-2C05-D44D-A922-0F7820CA4D42}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D604FEB-44EB-5D47-A4BC-9667B8439B2A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{0F653A56-3787-D649-A495-8EB2FAFB69E3}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14900" xr2:uid="{0F653A56-3787-D649-A495-8EB2FAFB69E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -434,7 +434,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -494,11 +494,13 @@
       <c r="F2" s="2">
         <v>1.25</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="2">
+        <v>1.1499999999999999</v>
+      </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2">
         <f>SUM(B2:H2)</f>
-        <v>4.3499999999999996</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -520,11 +522,13 @@
       <c r="F3" s="2">
         <v>1.25</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="2">
+        <v>1.25</v>
+      </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2">
         <f t="shared" ref="I3:I6" si="0">SUM(B3:H3)</f>
-        <v>4.9700000000000006</v>
+        <v>6.2200000000000006</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -546,7 +550,9 @@
       <c r="F4" s="2">
         <v>0</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2">
         <f t="shared" si="0"/>
@@ -572,11 +578,13 @@
       <c r="F5" s="2">
         <v>0.75</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2">
         <f>SUM(B5:H5)</f>
-        <v>2.35</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -598,9 +606,12 @@
       <c r="F6" s="2">
         <v>1.25</v>
       </c>
+      <c r="G6" s="2">
+        <v>1.25</v>
+      </c>
       <c r="I6" s="2">
         <f t="shared" si="0"/>
-        <v>6.25</v>
+        <v>7.5</v>
       </c>
     </row>
   </sheetData>

--- a/_pedro/notas/musa86.xlsx
+++ b/_pedro/notas/musa86.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kroger/Code/genosmus/_pedro/notas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D604FEB-44EB-5D47-A4BC-9667B8439B2A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C6EF27-4A69-0948-9032-ED794A3F599F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14900" xr2:uid="{0F653A56-3787-D649-A495-8EB2FAFB69E3}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{0F653A56-3787-D649-A495-8EB2FAFB69E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Nome</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Sidnei Marques De Oliveira</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -434,7 +437,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -497,10 +500,15 @@
       <c r="G2" s="2">
         <v>1.1499999999999999</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="2">
+        <v>2.5</v>
+      </c>
       <c r="I2" s="2">
         <f>SUM(B2:H2)</f>
-        <v>5.5</v>
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -525,10 +533,15 @@
       <c r="G3" s="2">
         <v>1.25</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="H3" s="2">
+        <v>2.5</v>
+      </c>
       <c r="I3" s="2">
         <f t="shared" ref="I3:I6" si="0">SUM(B3:H3)</f>
-        <v>6.2200000000000006</v>
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -553,10 +566,15 @@
       <c r="G4" s="2">
         <v>0</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="2">
+        <v>2</v>
+      </c>
       <c r="I4" s="2">
         <f t="shared" si="0"/>
-        <v>4.12</v>
+        <v>6.12</v>
+      </c>
+      <c r="J4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -581,10 +599,15 @@
       <c r="G5" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="2">
+        <v>2.5</v>
+      </c>
       <c r="I5" s="2">
         <f>SUM(B5:H5)</f>
-        <v>3.45</v>
+        <v>5.95</v>
+      </c>
+      <c r="J5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -609,9 +632,15 @@
       <c r="G6" s="2">
         <v>1.25</v>
       </c>
+      <c r="H6" s="2">
+        <v>2.5</v>
+      </c>
       <c r="I6" s="2">
         <f t="shared" si="0"/>
-        <v>7.5</v>
+        <v>10</v>
+      </c>
+      <c r="J6" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/_pedro/notas/musa86.xlsx
+++ b/_pedro/notas/musa86.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kroger/Code/genosmus/_pedro/notas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C6EF27-4A69-0948-9032-ED794A3F599F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27586114-8EDB-884C-9B5C-6A20B1FA5641}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{0F653A56-3787-D649-A495-8EB2FAFB69E3}"/>
   </bookViews>
@@ -79,6 +79,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -116,10 +119,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,7 +441,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -503,7 +507,7 @@
       <c r="H2" s="2">
         <v>2.5</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="3">
         <f>SUM(B2:H2)</f>
         <v>8</v>
       </c>
@@ -536,7 +540,7 @@
       <c r="H3" s="2">
         <v>2.5</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="3">
         <f t="shared" ref="I3:I6" si="0">SUM(B3:H3)</f>
         <v>8.7200000000000006</v>
       </c>
@@ -569,7 +573,7 @@
       <c r="H4" s="2">
         <v>2</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="3">
         <f t="shared" si="0"/>
         <v>6.12</v>
       </c>
@@ -602,7 +606,7 @@
       <c r="H5" s="2">
         <v>2.5</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="3">
         <f>SUM(B5:H5)</f>
         <v>5.95</v>
       </c>
@@ -635,7 +639,7 @@
       <c r="H6" s="2">
         <v>2.5</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
